--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 10/02. Trả bảo hành/TBH_DungThu_101025.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 10/02. Trả bảo hành/TBH_DungThu_101025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\Năm 2025\Tháng 10\02. Trả bảo hành\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2645B537-A5BD-49BC-9DC9-2C1D7F283AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E00584C-EC9C-4630-AB0B-668E1CDD7372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -85,25 +85,28 @@
     <t>Giải pháp xử lý</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 09 tháng 10 năm 2025</t>
-  </si>
-  <si>
-    <t>Thiết bị hoạt động bình thường</t>
-  </si>
-  <si>
     <t>Điện thoại: 0243 6400 767</t>
   </si>
   <si>
     <t>(Ký, ghi rõ họ tên)</t>
   </si>
   <si>
-    <t>TG102E-4G</t>
-  </si>
-  <si>
-    <t>Test lại thiết bị</t>
-  </si>
-  <si>
     <t>Khách hàng/ người đại diện: Đại lý Dũng Thu</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày 10 tháng 10 năm 2025</t>
+  </si>
+  <si>
+    <t>Không nhận sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW</t>
+  </si>
+  <si>
+    <t>TG102LE-4G</t>
+  </si>
+  <si>
+    <t>Sim</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -450,6 +453,27 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,26 +507,8 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -870,7 +876,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -881,8 +887,8 @@
     <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="4" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
@@ -890,77 +896,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="35" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="38" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="25"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -968,12 +974,12 @@
       <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -981,12 +987,12 @@
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="25"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -994,12 +1000,12 @@
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="25"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
@@ -1036,23 +1042,25 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>1</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="C11" s="51">
         <v>862205051188540</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>25</v>
@@ -1079,41 +1087,41 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="G13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+      <c r="A15" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="G15" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
@@ -1171,19 +1179,19 @@
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1197,12 +1205,17 @@
       <c r="I22" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
     </row>
     <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="B24:C24"/>
@@ -1216,14 +1229,9 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="23" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 10/02. Trả bảo hành/TBH_DungThu_101025.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 10/02. Trả bảo hành/TBH_DungThu_101025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\Năm 2025\Tháng 10\02. Trả bảo hành\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E00584C-EC9C-4630-AB0B-668E1CDD7372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89178F7A-D29D-4A19-B236-D5DCCBAE05F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,6 +453,42 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -473,42 +509,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -896,77 +896,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="42" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="45" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="48" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="25"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -974,12 +974,12 @@
       <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -987,12 +987,12 @@
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="25"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -1000,12 +1000,12 @@
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="25"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
@@ -1049,7 +1049,7 @@
       <c r="B11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="33">
         <v>862205051188540</v>
       </c>
       <c r="D11" s="26" t="s">
@@ -1087,41 +1087,41 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
@@ -1179,19 +1179,19 @@
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1205,17 +1205,12 @@
       <c r="I22" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
     </row>
     <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="B24:C24"/>
@@ -1229,6 +1224,11 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
